--- a/biology/Botanique/Zingeria_biebersteiniana/Zingeria_biebersteiniana.xlsx
+++ b/biology/Botanique/Zingeria_biebersteiniana/Zingeria_biebersteiniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zingeria biebersteiniana est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie.
-Cette espèce est l'une des rares espèces de plantes à fleurs à posséder seulement deux chromosomes (2n=2x=4). Ces espèces sont, outre Zingeria biebersteiniana, trois autres monocotylédones (Colpodium versicolor [Poaceae], Ornithogalum tenuifolium et Rhynchospora tenuis) et deux dicotylédones (Haplopappus gracilis et Brachyscome dichromosomatica)[2],[3].
+Cette espèce est l'une des rares espèces de plantes à fleurs à posséder seulement deux chromosomes (2n=2x=4). Ces espèces sont, outre Zingeria biebersteiniana, trois autres monocotylédones (Colpodium versicolor [Poaceae], Ornithogalum tenuifolium et Rhynchospora tenuis) et deux dicotylédones (Haplopappus gracilis et Brachyscome dichromosomatica),.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (12 décembre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (12 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Zingeria biebersteiniana subsp. biebersteiniana
 sous-espèce Zingeria biebersteiniana subsp. trichopoda (Boiss.) R.R. Mill</t>
         </is>
